--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1988864.351240241</v>
+        <v>1983124.236532024</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>49.71590729326813</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174334</v>
+        <v>72.50477145174345</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>21.01481473927786</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100843</v>
+        <v>26.75866868093392</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.8208585753809</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>121.384264862796</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>275.5658529564294</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.6013666445687</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>54.701915652952</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>156.7418470016292</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>111.5317316087713</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.46815663221277</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>54.70191565295233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19.36824379237609</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>127.3165365479907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>16.11451160540334</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>186.2120483577854</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>63.13355668550216</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>174.7200521246406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>201.6711926152595</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>135.724296416812</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>109.4695609620781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.65292080639762</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175847704</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.20584125154376</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>13.33835225137461</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396218</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>18.47631657875132</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>13.42874471570674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>81.1740025377009</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>61.42978662487831</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>79.49505480544711</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250815</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757.141328283357</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="C2" t="n">
-        <v>1757.141328283357</v>
+        <v>1266.780242964596</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.141328283357</v>
+        <v>908.5145443578451</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>522.7262917596008</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955055</v>
+        <v>111.7403869699933</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738263</v>
+        <v>97.52711438871802</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>97.52711438871802</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.9642385015906</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060705</v>
+        <v>397.0764468060702</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927186</v>
+        <v>769.5640925927182</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689011</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.04891581168</v>
+        <v>1624.048915811679</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633671</v>
+        <v>1978.67911263367</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054131</v>
+        <v>2243.673398054129</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804438</v>
+        <v>2292.214167804436</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222158</v>
+        <v>2109.431301222156</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222158</v>
+        <v>1889.527734748505</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.431301222158</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="V2" t="n">
-        <v>1778.368413878587</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="W2" t="n">
-        <v>1778.368413878587</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="X2" t="n">
-        <v>1757.141328283357</v>
+        <v>1635.742759905007</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.141328283357</v>
+        <v>1635.742759905007</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>839.9224145300703</v>
+        <v>676.4684781346485</v>
       </c>
       <c r="C3" t="n">
-        <v>665.4693852489434</v>
+        <v>502.0154488535215</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>353.0810391922702</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>193.8435841868147</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683008</v>
+        <v>52.12709798582523</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422588</v>
+        <v>282.8286256313368</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852913</v>
+        <v>654.4396961743691</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874798</v>
+        <v>1140.071509376558</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030028</v>
+        <v>1654.263565019105</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119899</v>
+        <v>2058.233162108977</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695908</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885989</v>
+        <v>2338.422352421415</v>
       </c>
       <c r="S3" t="n">
-        <v>2305.608548885989</v>
+        <v>2177.368589462206</v>
       </c>
       <c r="T3" t="n">
-        <v>2106.10486604672</v>
+        <v>1977.864906622937</v>
       </c>
       <c r="U3" t="n">
-        <v>1877.925038508929</v>
+        <v>1749.685079085147</v>
       </c>
       <c r="V3" t="n">
-        <v>1642.772930277187</v>
+        <v>1514.532970853405</v>
       </c>
       <c r="W3" t="n">
-        <v>1388.535573548985</v>
+        <v>1260.295614125203</v>
       </c>
       <c r="X3" t="n">
-        <v>1180.684073343452</v>
+        <v>1052.44411391967</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.137751550138</v>
+        <v>844.6838151547165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369974</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369974</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369974</v>
+        <v>464.7224358422819</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369974</v>
+        <v>316.8093422598888</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369974</v>
+        <v>169.9193947619785</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369974</v>
+        <v>169.9193947619785</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181583</v>
+        <v>88.80529410181572</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365659</v>
+        <v>197.4326649365657</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950594</v>
+        <v>322.3541198950591</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896737</v>
+        <v>449.7398382896732</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885924</v>
+        <v>551.3848716885918</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="U4" t="n">
-        <v>325.6583726343355</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="V4" t="n">
-        <v>325.6583726343355</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="W4" t="n">
-        <v>47.30902621369974</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="X4" t="n">
-        <v>47.30902621369974</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369974</v>
+        <v>614.8390752546177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2137.052644524937</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1763.586886263858</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4664,19 +4664,19 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>63.8323157735459</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.683768698139</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>977.29885802596</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>591.5106054277157</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>180.5247006381082</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>166.6012965766991</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>166.6012965766991</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598706</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
         <v>99.5995062532301</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>717.5550886183407</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>717.5550886183407</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>717.5550886183407</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>717.5550886183407</v>
+        <v>643.457604804549</v>
       </c>
       <c r="U10" t="n">
-        <v>717.5550886183407</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>717.5550886183407</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W10" t="n">
-        <v>428.1379185813802</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>428.1379185813802</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>428.1379185813802</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5029,40 +5029,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.866433243363</v>
+        <v>560.0445975595953</v>
       </c>
       <c r="C13" t="n">
-        <v>391.866433243363</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>391.866433243363</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>391.866433243363</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1190.475192431383</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>962.4856415333652</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.866433243363</v>
+        <v>741.6930623898351</v>
       </c>
     </row>
     <row r="14">
@@ -5263,43 +5263,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M15" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,22 +5387,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763014</v>
+        <v>425.75834230572</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>425.75834230572</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>425.75834230572</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>425.75834230572</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1768.250487965527</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1546.483872535053</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1002.69651745481</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W16" t="n">
-        <v>713.2793474178488</v>
+        <v>874.5404723472675</v>
       </c>
       <c r="X16" t="n">
-        <v>485.2897965198315</v>
+        <v>646.5509214492502</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.4972173763014</v>
+        <v>425.75834230572</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5597,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>339.1038984121913</v>
+        <v>307.2453974100827</v>
       </c>
       <c r="C19" t="n">
-        <v>339.1038984121913</v>
+        <v>307.2453974100827</v>
       </c>
       <c r="D19" t="n">
-        <v>339.1038984121913</v>
+        <v>307.2453974100827</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>159.3323038276895</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>159.3323038276895</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>159.3323038276895</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5709,16 +5709,16 @@
         <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1077.303198490699</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>787.8860284537387</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X19" t="n">
-        <v>559.8964775557214</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="Y19" t="n">
-        <v>339.1038984121913</v>
+        <v>488.8938622403224</v>
       </c>
     </row>
     <row r="20">
@@ -5731,49 +5731,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608899</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814245</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644073</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.00145687072</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5831,19 +5831,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>578.4172407837245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1752.635190735755</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U22" t="n">
-        <v>1463.532323861399</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1208.847835655512</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.847835655512</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X22" t="n">
-        <v>980.8582847574944</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.0657056139643</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>750.1800661608916</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814246</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644075</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.069814334827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6183,16 +6183,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1026.862393478357</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1026.862393478357</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1026.862393478357</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.069814334827</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,25 +6229,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.8920075170273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>523.9558245891204</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>373.8391851767847</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>373.8391851767847</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>373.8391851767847</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>206.1363485515036</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>874.540472347267</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>874.540472347267</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.540472347267</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608922</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814247</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644075</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.6259356382594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258583</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.060509258583</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.643339221623</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>935.6537883236053</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>714.8612091800752</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1460.488316778687</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
         <v>4260.556453353931</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3092.649987000256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>2923.713804072349</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989247</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.18224011489</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4012.497751909003</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.080581872043</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.091030974026</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.298451830496</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.9417306852379</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C37" t="n">
-        <v>242.4509819463048</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D37" t="n">
-        <v>242.4509819463048</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570251</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X37" t="n">
-        <v>673.3827746590077</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.5901955154776</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="38">
@@ -7171,49 +7171,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7244,22 +7244,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
         <v>506.8067350374723</v>
@@ -7329,13 +7329,13 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.657581931529</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.657581931529</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1764.657581931529</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="41">
@@ -7408,43 +7408,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
@@ -7481,34 +7481,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>974.4454116758762</v>
+        <v>492.7083461157172</v>
       </c>
       <c r="C43" t="n">
-        <v>805.5092287479694</v>
+        <v>323.7721631878103</v>
       </c>
       <c r="D43" t="n">
-        <v>655.3925893356336</v>
+        <v>323.7721631878103</v>
       </c>
       <c r="E43" t="n">
-        <v>507.4794957532405</v>
+        <v>323.7721631878103</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5895482553301</v>
+        <v>323.7721631878103</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927071</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892256</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598121</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="T43" t="n">
-        <v>1894.293176584624</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="U43" t="n">
-        <v>1894.293176584624</v>
+        <v>1667.240599230352</v>
       </c>
       <c r="V43" t="n">
-        <v>1894.293176584624</v>
+        <v>1412.556111024465</v>
       </c>
       <c r="W43" t="n">
-        <v>1604.876006547663</v>
+        <v>1123.138940987504</v>
       </c>
       <c r="X43" t="n">
-        <v>1376.886455649646</v>
+        <v>895.149390089487</v>
       </c>
       <c r="Y43" t="n">
-        <v>1156.093876506116</v>
+        <v>674.3568109459569</v>
       </c>
     </row>
     <row r="44">
@@ -7630,55 +7630,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>386.2645671479376</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1040.987899283237</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1905.506714936592</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580449</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807095</v>
+        <v>2985.817436667299</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157117</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C46" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D46" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.138940987499</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894816</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459515</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>69.44682818639328</v>
       </c>
       <c r="K3" t="n">
-        <v>53.60948744535263</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263818</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>288.0478149561025</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K20" t="n">
-        <v>133.2530576400235</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>133.2530576400255</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>282.7041781993168</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400263</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>395.1460246798101</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704411</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476848</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>102.852931051028</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>147.8785773062517</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.10451147494059</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>129.3065364175279</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.556976973656532</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>81.62145822881863</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>77.41759119918737</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>17.87775666090971</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>116.413346907016</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>35.28545395224268</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.1790593755397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.0409798470841</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>273.1846460852164</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>130.139156439461</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>273.0942536208843</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.85180572132732</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>158.1191626512909</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>69.12041821276524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>865111.7935637825</v>
+        <v>865111.7935637824</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>865111.7935637825</v>
+        <v>865111.7935637824</v>
       </c>
     </row>
     <row r="7">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049991</v>
       </c>
       <c r="E2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="H2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="I2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="M2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417764</v>
-      </c>
-      <c r="N2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555914.5016417763</v>
       </c>
       <c r="P2" t="n">
         <v>555914.5016417765</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106468</v>
+        <v>493391.6844106463</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447029</v>
+        <v>91792.63957447067</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832157</v>
+        <v>154726.5356832156</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220088</v>
+        <v>21342.09858220116</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861108</v>
+        <v>244465.9635861109</v>
       </c>
       <c r="C4" t="n">
         <v>218780.324998335</v>
@@ -26426,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079767</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="G4" t="n">
         <v>32032.95503079768</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079766</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="J4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>32032.95503079769</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079772</v>
       </c>
       <c r="L4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079763</v>
       </c>
       <c r="O4" t="n">
         <v>32032.95503079771</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079774</v>
+        <v>32032.95503079771</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140117</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26496,22 +26496,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239389.5152231603</v>
+        <v>-239389.5152231599</v>
       </c>
       <c r="C6" t="n">
-        <v>181297.196268784</v>
+        <v>181297.1962687834</v>
       </c>
       <c r="D6" t="n">
         <v>273089.8358432546</v>
       </c>
       <c r="E6" t="n">
-        <v>-299879.3856361412</v>
+        <v>-300551.3405383996</v>
       </c>
       <c r="F6" t="n">
-        <v>427498.0283572652</v>
+        <v>426826.0734550073</v>
       </c>
       <c r="G6" t="n">
-        <v>427498.0283572649</v>
+        <v>426826.073455007</v>
       </c>
       <c r="H6" t="n">
-        <v>427498.0283572651</v>
+        <v>426826.0734550071</v>
       </c>
       <c r="I6" t="n">
-        <v>427498.0283572654</v>
+        <v>426826.0734550072</v>
       </c>
       <c r="J6" t="n">
-        <v>272771.4926740497</v>
+        <v>272099.5377717917</v>
       </c>
       <c r="K6" t="n">
-        <v>406155.9297750641</v>
+        <v>405483.9748728059</v>
       </c>
       <c r="L6" t="n">
-        <v>427498.0283572652</v>
+        <v>426826.0734550071</v>
       </c>
       <c r="M6" t="n">
-        <v>297855.7135183202</v>
+        <v>297183.7586160624</v>
       </c>
       <c r="N6" t="n">
-        <v>427498.0283572651</v>
+        <v>426826.0734550073</v>
       </c>
       <c r="O6" t="n">
-        <v>427498.0283572649</v>
+        <v>426826.0734550071</v>
       </c>
       <c r="P6" t="n">
-        <v>427498.0283572652</v>
+        <v>426826.0734550072</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435488</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593299</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435488</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353786</v>
+        <v>71.38374637353814</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330897</v>
+        <v>82.92444508330937</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330891</v>
+        <v>82.92444508330937</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330897</v>
+        <v>82.92444508330937</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>113.2788135026115</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>348.7162859391912</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.48566550007455</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.86183720192344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>35.93110437167655</v>
       </c>
       <c r="I4" t="n">
         <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848788</v>
+        <v>54.30080173848793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731851</v>
+        <v>39.90169565731858</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27593,13 +27593,13 @@
         <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>10.95714538016165</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>23.6396020728443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.5193616454013</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>170.3331898051323</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>197.9411946190538</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>40.39958463608995</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.65459332270153</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,16 +28064,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>170.333189805132</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.290825031335565e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.619001477597825e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672557</v>
+        <v>1.231597659672556</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212158</v>
+        <v>12.61309953212156</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745263</v>
+        <v>47.48116877452625</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676338</v>
+        <v>104.5303118676337</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015732</v>
+        <v>156.663840801573</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787772</v>
+        <v>194.355347678777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589791</v>
+        <v>216.2577725589788</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095237</v>
+        <v>219.7570494095235</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811547</v>
+        <v>207.5103501811545</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579884</v>
+        <v>177.1052829579882</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709649</v>
+        <v>132.9986917709648</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940634</v>
+        <v>77.36434648940623</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978843</v>
+        <v>28.06503166978839</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216622</v>
+        <v>5.391318755216615</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380455</v>
+        <v>0.09852781277380443</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540484</v>
+        <v>0.6589628421540475</v>
       </c>
       <c r="H3" t="n">
-        <v>6.3641937650141</v>
+        <v>6.364193765014092</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784772</v>
+        <v>22.68797504784769</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403667</v>
+        <v>62.25753764403658</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683579</v>
+        <v>106.4080480683578</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966499</v>
+        <v>143.0787521966497</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247341</v>
+        <v>166.9661552247339</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302321</v>
+        <v>171.3852525302319</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382924</v>
+        <v>156.7840232382922</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723814</v>
+        <v>125.8330009723813</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338345</v>
+        <v>84.11602876338334</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163471</v>
+        <v>40.91349997163466</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422102</v>
+        <v>12.23994577422101</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945484</v>
+        <v>2.65608268394548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276636</v>
+        <v>0.04335281856276631</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654159</v>
+        <v>0.5524523108654151</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967065</v>
+        <v>4.911803272967058</v>
       </c>
       <c r="I4" t="n">
-        <v>16.6137476758436</v>
+        <v>16.61374767584358</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781849</v>
+        <v>39.05837837818485</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509103</v>
+        <v>64.18491393509095</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448194</v>
+        <v>82.13459174448182</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502149</v>
+        <v>86.59941087502138</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361411</v>
+        <v>84.54027044361399</v>
       </c>
       <c r="O4" t="n">
-        <v>78.086622993959</v>
+        <v>78.08662299395888</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230445</v>
+        <v>66.81659585230436</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437587</v>
+        <v>46.26034759437581</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400315</v>
+        <v>24.84026481400311</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263652</v>
+        <v>9.62773709026364</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515867</v>
+        <v>2.360478055515864</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0301337624108409</v>
+        <v>0.03013376241084086</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138797</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905542</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302128</v>
+        <v>92.58102251302114</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277574</v>
+        <v>260.7194023277572</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592404</v>
+        <v>376.2501472592402</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245388</v>
+        <v>435.4250728245386</v>
       </c>
       <c r="N2" t="n">
-        <v>427.690910224917</v>
+        <v>427.6909102249167</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222134</v>
+        <v>358.2123200222131</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742015</v>
+        <v>267.6709953742013</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564201</v>
+        <v>123.00799255642</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777881</v>
+        <v>4.866739163763159</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935153</v>
+        <v>233.0318461065774</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202349</v>
+        <v>375.3647177202347</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527157</v>
+        <v>490.5371850527155</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904523</v>
+        <v>519.3859147904521</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705775</v>
+        <v>408.0500980705773</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979883</v>
+        <v>310.3213621979882</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.211542413211</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920818</v>
+        <v>41.91542210920809</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047981</v>
+        <v>109.724617004798</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368621</v>
+        <v>126.183287836862</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228427</v>
+        <v>128.6724428228426</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079987</v>
+        <v>102.6717509079986</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719793</v>
+        <v>64.09515511719785</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115031</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265653</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908547</v>
@@ -35965,7 +35965,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340056</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K20" t="n">
-        <v>470.4443441954242</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>470.444344195426</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36612,13 +36612,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>681.4661644186887</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>470.4443441954267</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>850.7361390721422</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552631</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>883.6236994779116</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702028</v>
       </c>
       <c r="M43" t="n">
         <v>347.6333793934838</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>293.6399320197405</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983124.236532024</v>
+        <v>1986529.727656473</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359937</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49.71590729326813</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174345</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>171.6392787529756</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.75866868093392</v>
+        <v>59.24433418100831</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>165.0229805108069</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>121.384264862796</v>
+        <v>102.5612108334169</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>211.0025011558363</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>71.9731517137659</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.701915652952</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>111.5317316087713</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>54.70191565295233</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873209</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>19.36824379237609</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>54.2011516669499</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>16.11451160540334</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442779</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>17.25588147840143</v>
       </c>
       <c r="H19" t="n">
-        <v>63.13355668550216</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.7576914549245</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.148488117499429</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>51.39121609254016</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>13.33835225137461</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396218</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>18.47631657875132</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>138.7354112705499</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.1740025377009</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486502</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.5103646250815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1635.742759905007</v>
+        <v>1585.524671729989</v>
       </c>
       <c r="C2" t="n">
-        <v>1266.780242964596</v>
+        <v>1216.562154789577</v>
       </c>
       <c r="D2" t="n">
-        <v>908.5145443578451</v>
+        <v>858.2964561828269</v>
       </c>
       <c r="E2" t="n">
-        <v>522.7262917596008</v>
+        <v>472.5082035845826</v>
       </c>
       <c r="F2" t="n">
-        <v>111.7403869699933</v>
+        <v>61.52229879497505</v>
       </c>
       <c r="G2" t="n">
-        <v>97.52711438871802</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="H2" t="n">
-        <v>97.52711438871802</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015906</v>
+        <v>138.9642385015912</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060702</v>
+        <v>397.0764468060714</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927182</v>
+        <v>769.5640925927198</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804436</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222156</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.527734748505</v>
+        <v>2192.078301843601</v>
       </c>
       <c r="U2" t="n">
-        <v>1635.742759905007</v>
+        <v>1938.293327000103</v>
       </c>
       <c r="V2" t="n">
-        <v>1635.742759905007</v>
+        <v>1938.293327000103</v>
       </c>
       <c r="W2" t="n">
-        <v>1635.742759905007</v>
+        <v>1585.524671729989</v>
       </c>
       <c r="X2" t="n">
-        <v>1635.742759905007</v>
+        <v>1585.524671729989</v>
       </c>
       <c r="Y2" t="n">
-        <v>1635.742759905007</v>
+        <v>1585.524671729989</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>676.4684781346485</v>
+        <v>676.4684781346486</v>
       </c>
       <c r="C3" t="n">
-        <v>502.0154488535215</v>
+        <v>502.0154488535216</v>
       </c>
       <c r="D3" t="n">
-        <v>353.0810391922702</v>
+        <v>353.0810391922703</v>
       </c>
       <c r="E3" t="n">
-        <v>193.8435841868147</v>
+        <v>193.8435841868148</v>
       </c>
       <c r="F3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="G3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="H3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J3" t="n">
-        <v>52.12709798582523</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>282.8286256313368</v>
+        <v>338.906390713813</v>
       </c>
       <c r="L3" t="n">
-        <v>654.4396961743691</v>
+        <v>710.517461256846</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.071509376558</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1654.263565019105</v>
+        <v>1710.341330101583</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.233162108977</v>
+        <v>2114.310927191455</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310684985</v>
+        <v>2212.781883695911</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2338.422352421415</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="S3" t="n">
-        <v>2177.368589462206</v>
+        <v>2144.554785926783</v>
       </c>
       <c r="T3" t="n">
-        <v>1977.864906622937</v>
+        <v>1977.864906622938</v>
       </c>
       <c r="U3" t="n">
-        <v>1749.685079085147</v>
+        <v>1749.685079085148</v>
       </c>
       <c r="V3" t="n">
         <v>1514.532970853405</v>
@@ -4451,10 +4451,10 @@
         <v>1260.295614125203</v>
       </c>
       <c r="X3" t="n">
-        <v>1052.44411391967</v>
+        <v>1052.444113919671</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.6838151547165</v>
+        <v>844.6838151547167</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422819</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598888</v>
+        <v>466.9259816722266</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619785</v>
+        <v>320.0360341743162</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9193947619785</v>
+        <v>150.9062088737169</v>
       </c>
       <c r="H4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="I4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181572</v>
+        <v>88.80529410181607</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950591</v>
+        <v>322.3541198950601</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896732</v>
+        <v>449.7398382896746</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885918</v>
+        <v>551.3848716885935</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546197</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.54646147304</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2393.242760616658</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961344</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.527073573122</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.56455663271</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>977.29885802596</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>591.5106054277157</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>180.5247006381082</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>166.6012965766991</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>166.6012965766991</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,28 +4886,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,40 +5020,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>416.1091927888615</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.0445975595953</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.892362468343</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.475192431383</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X13" t="n">
-        <v>962.4856415333652</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.6930623898351</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="14">
@@ -5263,34 +5263,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>425.75834230572</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>425.75834230572</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>425.75834230572</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>425.75834230572</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,49 +5439,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472675</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5509214492502</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.75834230572</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>416.1091927888615</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.2453974100827</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C19" t="n">
-        <v>307.2453974100827</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D19" t="n">
-        <v>307.2453974100827</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3323038276895</v>
+        <v>112.991217759911</v>
       </c>
       <c r="F19" t="n">
-        <v>159.3323038276895</v>
+        <v>112.991217759911</v>
       </c>
       <c r="G19" t="n">
-        <v>159.3323038276895</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,49 +5676,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208131</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838525</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>709.6864413838525</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>488.8938622403224</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888615</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5843,16 +5843,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,7 +5861,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5870,7 +5870,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5913,49 +5913,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413808</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433634</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998333</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
@@ -5977,13 +5977,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,25 +5992,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2536.15366264131</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3082.932479700092</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.904950579429</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6417,19 +6417,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,7 +6463,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K29" t="n">
         <v>1070.832524924162</v>
@@ -6490,25 +6490,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6694,7 +6694,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1460.488316778687</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608516</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6885,22 +6885,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
         <v>277.2094992786341</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,67 +6922,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.336921276364</v>
+        <v>759.6313103540838</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>590.6951274261769</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>440.5784880138411</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>440.5784880138411</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>293.6885405159308</v>
       </c>
       <c r="G37" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.240599230347</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W37" t="n">
-        <v>1653.767516148151</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="X37" t="n">
-        <v>1425.777965250134</v>
+        <v>1162.072354327854</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.985386106604</v>
+        <v>941.2797751843235</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,49 +7171,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7250,7 +7250,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>673.3827746590082</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C40" t="n">
-        <v>673.3827746590082</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D40" t="n">
-        <v>654.7198286198654</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>960.5079561277488</v>
       </c>
       <c r="Y40" t="n">
-        <v>673.3827746590082</v>
+        <v>739.7153769842187</v>
       </c>
     </row>
     <row r="41">
@@ -7408,40 +7408,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294614</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353396</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232733</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7487,7 +7487,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>492.7083461157172</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>323.7721631878103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>323.7721631878103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>323.7721631878103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>323.7721631878103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442099</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927071</v>
+        <v>661.2306482927061</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892256</v>
+        <v>1005.387693892255</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598121</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104708</v>
+        <v>1764.657581931534</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104708</v>
+        <v>1542.89096650106</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230352</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024465</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.138940987504</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>895.149390089487</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459569</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7630,55 +7630,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>386.2645671479376</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1040.987899283237</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1905.506714936592</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2439.038619608516</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>2985.817436667299</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996754</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7724,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839444</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839444</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839444</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839444</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786342</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>69.44682818639328</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>107.607019072712</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263818</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.9990175570117</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>288.0478149561025</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.9990175570117</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570117</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>282.7041781993168</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>395.1460246798101</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476847</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476847</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>344.7025836476848</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>295.4822118493984</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102.852931051028</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>147.8785773062517</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>164.3835016851449</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>129.3065364175279</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>148.7699267806268</v>
       </c>
       <c r="H19" t="n">
-        <v>81.62145822881863</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>165.0983329811284</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.6345921664881</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>273.1846460852164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>130.139156439461</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>86.97424411848726</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.85180572132732</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696273</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3466769161726</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>865111.7935637824</v>
+        <v>865111.7935637825</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>865111.7935637824</v>
+        <v>865111.7935637825</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>865111.7935637824</v>
+        <v>865111.7935637825</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>865111.7935637824</v>
+        <v>865111.7935637825</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="F2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="G2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="I2" t="n">
+        <v>555914.5016417768</v>
+      </c>
+      <c r="J2" t="n">
+        <v>555914.5016417768</v>
+      </c>
+      <c r="K2" t="n">
         <v>555914.5016417766</v>
-      </c>
-      <c r="G2" t="n">
-        <v>555914.5016417763</v>
-      </c>
-      <c r="H2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="I2" t="n">
-        <v>555914.5016417765</v>
-      </c>
-      <c r="J2" t="n">
-        <v>555914.5016417766</v>
-      </c>
-      <c r="K2" t="n">
-        <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="M2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="N2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="N2" t="n">
-        <v>555914.5016417765</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555914.5016417764</v>
-      </c>
       <c r="P2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106463</v>
+        <v>493391.684410648</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447067</v>
+        <v>91792.63957446915</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832156</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220116</v>
+        <v>21342.09858220081</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861109</v>
+        <v>244465.9635861105</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="I4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079763</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,13 +26481,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239389.5152231599</v>
+        <v>-239389.5152231615</v>
       </c>
       <c r="C6" t="n">
-        <v>181297.1962687834</v>
+        <v>181297.1962687849</v>
       </c>
       <c r="D6" t="n">
-        <v>273089.8358432546</v>
+        <v>273089.8358432543</v>
       </c>
       <c r="E6" t="n">
-        <v>-300551.3405383996</v>
+        <v>-299946.5811263671</v>
       </c>
       <c r="F6" t="n">
-        <v>426826.0734550073</v>
+        <v>427430.8328670393</v>
       </c>
       <c r="G6" t="n">
-        <v>426826.073455007</v>
+        <v>427430.8328670394</v>
       </c>
       <c r="H6" t="n">
-        <v>426826.0734550071</v>
+        <v>427430.8328670394</v>
       </c>
       <c r="I6" t="n">
-        <v>426826.0734550072</v>
+        <v>427430.8328670395</v>
       </c>
       <c r="J6" t="n">
-        <v>272099.5377717917</v>
+        <v>272704.2971838237</v>
       </c>
       <c r="K6" t="n">
-        <v>405483.9748728059</v>
+        <v>406088.7342848387</v>
       </c>
       <c r="L6" t="n">
-        <v>426826.0734550071</v>
+        <v>427430.8328670393</v>
       </c>
       <c r="M6" t="n">
-        <v>297183.7586160624</v>
+        <v>297788.5180280945</v>
       </c>
       <c r="N6" t="n">
-        <v>426826.0734550073</v>
+        <v>427430.8328670393</v>
       </c>
       <c r="O6" t="n">
-        <v>426826.0734550071</v>
+        <v>427430.8328670394</v>
       </c>
       <c r="P6" t="n">
-        <v>426826.0734550072</v>
+        <v>427430.8328670395</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353814</v>
+        <v>71.38374637353698</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330937</v>
+        <v>82.924445083308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330937</v>
+        <v>82.924445083308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330937</v>
+        <v>82.924445083308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>113.2788135026115</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174312</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>46.06525205593911</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27475,10 +27475,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356738</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>32.48566550007455</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>32.48566550006919</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35.93110437167655</v>
+        <v>54.75415840105559</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848793</v>
+        <v>54.30080173848777</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731858</v>
+        <v>39.90169565731838</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>154.2703906151712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>144.4751686438919</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>170.3331898051323</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>40.39958463608995</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>170.333189805132</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="11">
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.290825031335565e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-3.774407299222456e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30644,10 +30644,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="L43" t="n">
-        <v>4.619001477597825e-12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672556</v>
+        <v>1.231597659672561</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452625</v>
+        <v>47.48116877452644</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676337</v>
+        <v>104.5303118676341</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801573</v>
+        <v>156.6638408015736</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678777</v>
+        <v>194.3553476787778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589788</v>
+        <v>216.2577725589797</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095235</v>
+        <v>219.7570494095243</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811545</v>
+        <v>207.5103501811553</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579882</v>
+        <v>177.1052829579889</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709648</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940623</v>
+        <v>77.36434648940656</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978839</v>
+        <v>28.0650316697885</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216615</v>
+        <v>5.391318755216637</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380443</v>
+        <v>0.09852781277380483</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540475</v>
+        <v>0.6589628421540503</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014092</v>
+        <v>6.364193765014118</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784769</v>
+        <v>22.68797504784779</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403658</v>
+        <v>62.25753764403684</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683578</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.0787521966503</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.9661552247346</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302319</v>
+        <v>171.3852525302326</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382922</v>
+        <v>156.7840232382928</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723813</v>
+        <v>125.8330009723818</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338334</v>
+        <v>84.11602876338368</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163466</v>
+        <v>40.91349997163482</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422101</v>
+        <v>12.23994577422106</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394548</v>
+        <v>2.656082683945491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276631</v>
+        <v>0.04335281856276648</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654151</v>
+        <v>0.5524523108654174</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967058</v>
+        <v>4.911803272967078</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584358</v>
+        <v>16.61374767584365</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818485</v>
+        <v>39.058378378185</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509095</v>
+        <v>64.1849139350912</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448182</v>
+        <v>82.13459174448217</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502138</v>
+        <v>86.59941087502173</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361399</v>
+        <v>84.54027044361435</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395888</v>
+        <v>78.08662299395921</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230436</v>
+        <v>66.81659585230464</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437581</v>
+        <v>46.260347594376</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400311</v>
+        <v>24.84026481400322</v>
       </c>
       <c r="S4" t="n">
-        <v>9.62773709026364</v>
+        <v>9.627737090263679</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515864</v>
+        <v>2.360478055515874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084086</v>
+        <v>0.03013376241084098</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302114</v>
+        <v>92.58102251302157</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.7194023277578</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592402</v>
+        <v>376.250147259241</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245386</v>
+        <v>435.4250728245394</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249167</v>
+        <v>427.6909102249176</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222131</v>
+        <v>358.2123200222139</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742013</v>
+        <v>267.6709953742021</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.00799255642</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.866739163763159</v>
+        <v>61.51094631777898</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065774</v>
+        <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>375.3647177202353</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527162</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904521</v>
+        <v>519.3859147904528</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705773</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979882</v>
+        <v>99.46561263076353</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.2115424132112</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920809</v>
+        <v>41.91542210920835</v>
       </c>
       <c r="L4" t="n">
-        <v>109.724617004798</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079986</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719785</v>
+        <v>64.09515511719813</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>323.7860185257243</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>625.2391015115031</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>323.7860185257243</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257243</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36603,22 +36603,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>681.4661644186887</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7361390721422</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37086,13 +37086,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359038</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359038</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37788,22 +37788,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>883.6236994779116</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>694.2441980687703</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443231</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721702028</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
         <v>347.6333793934838</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>293.6399320197405</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
